--- a/Code/Results/Cases/Case_2_165/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_165/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.196488709239759</v>
+        <v>0.8149060806616717</v>
       </c>
       <c r="C2">
-        <v>0.0933507097024755</v>
+        <v>0.1933857673950889</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1281671605566501</v>
+        <v>0.2281357363757017</v>
       </c>
       <c r="F2">
-        <v>1.201845026581893</v>
+        <v>2.202178076897397</v>
       </c>
       <c r="G2">
-        <v>0.0008200742913832093</v>
+        <v>0.002484787234215415</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05905323697624709</v>
+        <v>0.06720758584429021</v>
       </c>
       <c r="K2">
-        <v>0.8589930332861115</v>
+        <v>0.3578018687996689</v>
       </c>
       <c r="L2">
-        <v>0.3796228716521597</v>
+        <v>0.4304720508122273</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9554683614528369</v>
+        <v>2.001538814254022</v>
       </c>
       <c r="O2">
-        <v>1.886075614526305</v>
+        <v>4.088716896165778</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.045473084503129</v>
+        <v>0.7750184406520191</v>
       </c>
       <c r="C3">
-        <v>0.09434188037412738</v>
+        <v>0.1939736074560976</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1189516817369238</v>
+        <v>0.2268825072741194</v>
       </c>
       <c r="F3">
-        <v>1.143266111517931</v>
+        <v>2.200917907954903</v>
       </c>
       <c r="G3">
-        <v>0.0008236400976085982</v>
+        <v>0.002487143628304584</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05676377755495565</v>
+        <v>0.06638006353365711</v>
       </c>
       <c r="K3">
-        <v>0.746298041948279</v>
+        <v>0.3253221577429599</v>
       </c>
       <c r="L3">
-        <v>0.3383460421211737</v>
+        <v>0.4213189132172204</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.000389355546878</v>
+        <v>2.020873338268105</v>
       </c>
       <c r="O3">
-        <v>1.873043463504928</v>
+        <v>4.111959272972399</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.95322901482578</v>
+        <v>0.7508280886198406</v>
       </c>
       <c r="C4">
-        <v>0.09498593570338976</v>
+        <v>0.1943577008368997</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.113415011073819</v>
+        <v>0.2261996318757404</v>
       </c>
       <c r="F4">
-        <v>1.109060968215061</v>
+        <v>2.201169440998598</v>
       </c>
       <c r="G4">
-        <v>0.0008259034333829628</v>
+        <v>0.002488668306307481</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05535650841706641</v>
+        <v>0.06586880983464738</v>
       </c>
       <c r="K4">
-        <v>0.6772589555860833</v>
+        <v>0.3054464656298137</v>
       </c>
       <c r="L4">
-        <v>0.3132638289202561</v>
+        <v>0.4158751048123719</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.02911987319499</v>
+        <v>2.033348906436248</v>
       </c>
       <c r="O4">
-        <v>1.868414251262777</v>
+        <v>4.128099907232468</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9157446689590927</v>
+        <v>0.7410466867682999</v>
       </c>
       <c r="C5">
-        <v>0.09525726485182062</v>
+        <v>0.1945200611728879</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1111879025042235</v>
+        <v>0.2259431998857586</v>
       </c>
       <c r="F5">
-        <v>1.095544809500268</v>
+        <v>2.201530074588845</v>
       </c>
       <c r="G5">
-        <v>0.0008268446466288987</v>
+        <v>0.002489309256433648</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05478258249045709</v>
+        <v>0.06565968885430706</v>
       </c>
       <c r="K5">
-        <v>0.6491542305584233</v>
+        <v>0.2973642784447748</v>
       </c>
       <c r="L5">
-        <v>0.3031034704511057</v>
+        <v>0.4137012343948498</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.041110613231943</v>
+        <v>2.038584740028922</v>
       </c>
       <c r="O5">
-        <v>1.86734274859711</v>
+        <v>4.135147716158087</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9095263957688076</v>
+        <v>0.7394271257576008</v>
       </c>
       <c r="C6">
-        <v>0.09530285331601718</v>
+        <v>0.194547374130277</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1108198106234006</v>
+        <v>0.2259019408881606</v>
       </c>
       <c r="F6">
-        <v>1.093325411389714</v>
+        <v>2.201605557364871</v>
       </c>
       <c r="G6">
-        <v>0.0008270020835524431</v>
+        <v>0.002489416873071518</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05468725329286528</v>
+        <v>0.06562491764685419</v>
       </c>
       <c r="K6">
-        <v>0.6444889482533966</v>
+        <v>0.2960232974374151</v>
       </c>
       <c r="L6">
-        <v>0.3014198836669806</v>
+        <v>0.4133429601391612</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.043118576246339</v>
+        <v>2.039463323959224</v>
       </c>
       <c r="O6">
-        <v>1.867213107545084</v>
+        <v>4.136346414924304</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9527230782929053</v>
+        <v>0.7506958630696374</v>
       </c>
       <c r="C7">
-        <v>0.09498955908411943</v>
+        <v>0.1943598668212552</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1133848594514184</v>
+        <v>0.2261960850057605</v>
       </c>
       <c r="F7">
-        <v>1.108876999405481</v>
+        <v>2.201173259044054</v>
       </c>
       <c r="G7">
-        <v>0.0008259160500997713</v>
+        <v>0.002488676870789281</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05534877016986783</v>
+        <v>0.06586599270258375</v>
       </c>
       <c r="K7">
-        <v>0.6768798197582555</v>
+        <v>0.3053373956734333</v>
       </c>
       <c r="L7">
-        <v>0.3131265628588125</v>
+        <v>0.4158456066805485</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.029280447175976</v>
+        <v>2.033418903481598</v>
       </c>
       <c r="O7">
-        <v>1.868396543583344</v>
+        <v>4.128193051660716</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.144309632707092</v>
+        <v>0.8010908048804595</v>
       </c>
       <c r="C8">
-        <v>0.09368507273464566</v>
+        <v>0.193583658043055</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1249635049579325</v>
+        <v>0.227685685295544</v>
       </c>
       <c r="F8">
-        <v>1.181268552011971</v>
+        <v>2.201530957491755</v>
       </c>
       <c r="G8">
-        <v>0.0008212886237627169</v>
+        <v>0.002485583597191592</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05826410750507094</v>
+        <v>0.06692291700088049</v>
       </c>
       <c r="K8">
-        <v>0.8200971897064449</v>
+        <v>0.3465892373754969</v>
       </c>
       <c r="L8">
-        <v>0.3653331505532122</v>
+        <v>0.4272795865308865</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9707149458576212</v>
+        <v>2.008080001178174</v>
       </c>
       <c r="O8">
-        <v>1.880861719257013</v>
+        <v>4.09634293152935</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.524547792295238</v>
+        <v>0.9022759107380409</v>
       </c>
       <c r="C9">
-        <v>0.09141079144332309</v>
+        <v>0.1922445352046722</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1487052289292272</v>
+        <v>0.2312914691581369</v>
       </c>
       <c r="F9">
-        <v>1.338192941401232</v>
+        <v>2.210356230186804</v>
       </c>
       <c r="G9">
-        <v>0.0008127865321962954</v>
+        <v>0.002480132723350525</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06397232641608852</v>
+        <v>0.0689701154079394</v>
       </c>
       <c r="K9">
-        <v>1.102675693277973</v>
+        <v>0.4279986314517146</v>
       </c>
       <c r="L9">
-        <v>0.4700318341799203</v>
+        <v>0.4510925871223037</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8652680341787702</v>
+        <v>1.963181403777261</v>
       </c>
       <c r="O9">
-        <v>1.933642144485731</v>
+        <v>4.048712725401003</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.807773446425472</v>
+        <v>0.9780288482903075</v>
       </c>
       <c r="C10">
-        <v>0.08991644360709472</v>
+        <v>0.1913712635613543</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.166884951014417</v>
+        <v>0.2343551271377819</v>
       </c>
       <c r="F10">
-        <v>1.464055959048522</v>
+        <v>2.221781246709696</v>
       </c>
       <c r="G10">
-        <v>0.0008068680221220835</v>
+        <v>0.002476499230776338</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06816609523500361</v>
+        <v>0.07045825642043368</v>
       </c>
       <c r="K10">
-        <v>1.312085150730496</v>
+        <v>0.4881072860000302</v>
       </c>
       <c r="L10">
-        <v>0.5487338996718734</v>
+        <v>0.4694281156791078</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7939388543327</v>
+        <v>1.933110848054159</v>
       </c>
       <c r="O10">
-        <v>1.992014676090776</v>
+        <v>4.02275057394499</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.937721441399333</v>
+        <v>1.01279224614251</v>
       </c>
       <c r="C11">
-        <v>0.08927585163132434</v>
+        <v>0.1909977923007524</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1753401614760932</v>
+        <v>0.2358382808251918</v>
       </c>
       <c r="F11">
-        <v>1.523952123996366</v>
+        <v>2.228049526615308</v>
       </c>
       <c r="G11">
-        <v>0.0008042418820856464</v>
+        <v>0.002474926096785909</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07007515967451994</v>
+        <v>0.0711317040008872</v>
       </c>
       <c r="K11">
-        <v>1.407919886104139</v>
+        <v>0.5155136403542429</v>
       </c>
       <c r="L11">
-        <v>0.5850105208701279</v>
+        <v>0.4779503060856314</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7629207226560797</v>
+        <v>1.920063355910628</v>
       </c>
       <c r="O11">
-        <v>2.023374438832093</v>
+        <v>4.012899504219945</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.98711145659189</v>
+        <v>1.025999189961169</v>
       </c>
       <c r="C12">
-        <v>0.08903899708273144</v>
+        <v>0.190859772546478</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1785707241674999</v>
+        <v>0.2364127201518684</v>
       </c>
       <c r="F12">
-        <v>1.54704325284888</v>
+        <v>2.230576913547253</v>
       </c>
       <c r="G12">
-        <v>0.0008032565323349444</v>
+        <v>0.002474341802290825</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07079835568814019</v>
+        <v>0.07138620505511284</v>
       </c>
       <c r="K12">
-        <v>1.444308016227723</v>
+        <v>0.5259003151301727</v>
       </c>
       <c r="L12">
-        <v>0.5988233413854971</v>
+        <v>0.4812033252748051</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7513894668807936</v>
+        <v>1.915213428364861</v>
       </c>
       <c r="O12">
-        <v>2.035989740603753</v>
+        <v>4.009450759896964</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.976465987293693</v>
+        <v>1.023152947089272</v>
       </c>
       <c r="C13">
-        <v>0.08908975189984503</v>
+        <v>0.1908893463300174</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1778736502485216</v>
+        <v>0.2362884360781692</v>
       </c>
       <c r="F13">
-        <v>1.542051441191248</v>
+        <v>2.230025763050222</v>
       </c>
       <c r="G13">
-        <v>0.0008034683465482383</v>
+        <v>0.00247446713361554</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07064258882117258</v>
+        <v>0.07133141699402756</v>
       </c>
       <c r="K13">
-        <v>1.436466587577542</v>
+        <v>0.5236629899021636</v>
       </c>
       <c r="L13">
-        <v>0.5958450155832367</v>
+        <v>0.480501583106232</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7538632329757496</v>
+        <v>1.916253904873801</v>
       </c>
       <c r="O13">
-        <v>2.033239080622565</v>
+        <v>4.010180984087867</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.941781016107711</v>
+        <v>1.013877936018474</v>
       </c>
       <c r="C14">
-        <v>0.08925625022198602</v>
+        <v>0.1909863691602354</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1756053527582537</v>
+        <v>0.235885284116911</v>
       </c>
       <c r="F14">
-        <v>1.525843453724846</v>
+        <v>2.228254376983926</v>
       </c>
       <c r="G14">
-        <v>0.0008041606365713445</v>
+        <v>0.002474877797861478</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07013465142049569</v>
+        <v>0.07115265243341184</v>
       </c>
       <c r="K14">
-        <v>1.410911512761999</v>
+        <v>0.5163679913159456</v>
       </c>
       <c r="L14">
-        <v>0.5861453496092395</v>
+        <v>0.4782174170806144</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7619676838276961</v>
+        <v>1.919662528014355</v>
       </c>
       <c r="O14">
-        <v>2.024397183398662</v>
+        <v>4.012610129963122</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.920559799405851</v>
+        <v>1.008202274758389</v>
       </c>
       <c r="C15">
-        <v>0.08935898339030146</v>
+        <v>0.1910462415424661</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1742197658030875</v>
+        <v>0.2356400070375315</v>
       </c>
       <c r="F15">
-        <v>1.515969881323841</v>
+        <v>2.227189363110242</v>
       </c>
       <c r="G15">
-        <v>0.0008045858582943176</v>
+        <v>0.00247513082721223</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06982356355987918</v>
+        <v>0.07104308599794606</v>
       </c>
       <c r="K15">
-        <v>1.39527146997284</v>
+        <v>0.5119006832987907</v>
       </c>
       <c r="L15">
-        <v>0.5802141042132263</v>
+        <v>0.4768216595573307</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7669601241427695</v>
+        <v>1.921762243572321</v>
       </c>
       <c r="O15">
-        <v>2.019079151348308</v>
+        <v>4.01413472725676</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.799305191327704</v>
+        <v>0.9757630097248295</v>
       </c>
       <c r="C16">
-        <v>0.08995910379602279</v>
+        <v>0.1913961481501438</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1663362882173125</v>
+        <v>0.2342599944928949</v>
       </c>
       <c r="F16">
-        <v>1.460197260816486</v>
+        <v>2.221393126812771</v>
       </c>
       <c r="G16">
-        <v>0.0008070409444801523</v>
+        <v>0.002476603639275858</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06804136694119478</v>
+        <v>0.07041417315435794</v>
       </c>
       <c r="K16">
-        <v>1.305834932514898</v>
+        <v>0.4863174318327879</v>
       </c>
       <c r="L16">
-        <v>0.5463733094769481</v>
+        <v>0.4688747996467697</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7959954927958559</v>
+        <v>1.93397624727986</v>
       </c>
       <c r="O16">
-        <v>1.990066058336566</v>
+        <v>4.023433781372347</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.725218391290269</v>
+        <v>0.9559396290366067</v>
       </c>
       <c r="C17">
-        <v>0.09033735666312381</v>
+        <v>0.1916168859373961</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1615489291150851</v>
+        <v>0.2334362726444503</v>
       </c>
       <c r="F17">
-        <v>1.426679615850873</v>
+        <v>2.218111428487461</v>
       </c>
       <c r="G17">
-        <v>0.0008085637367578671</v>
+        <v>0.002477527553218799</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06694844089385654</v>
+        <v>0.07002744562093355</v>
       </c>
       <c r="K17">
-        <v>1.251125795024819</v>
+        <v>0.4706386040666928</v>
       </c>
       <c r="L17">
-        <v>0.52573975712275</v>
+        <v>0.4640459321477266</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.814180211399421</v>
+        <v>1.941630970138325</v>
       </c>
       <c r="O17">
-        <v>1.973532165053854</v>
+        <v>4.029640191268669</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.682708414333007</v>
+        <v>0.9445663113765477</v>
       </c>
       <c r="C18">
-        <v>0.09055860115221037</v>
+        <v>0.191746088029177</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.158812659764866</v>
+        <v>0.2329709158804398</v>
       </c>
       <c r="F18">
-        <v>1.407647770716224</v>
+        <v>2.216324705178096</v>
       </c>
       <c r="G18">
-        <v>0.0008094458654347333</v>
+        <v>0.002478066474433481</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06631993539735603</v>
+        <v>0.06980468011067487</v>
       </c>
       <c r="K18">
-        <v>1.219711539418341</v>
+        <v>0.4616264829022327</v>
       </c>
       <c r="L18">
-        <v>0.5139160890647076</v>
+        <v>0.4612855698375995</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8247735923598253</v>
+        <v>1.946093226055433</v>
       </c>
       <c r="O18">
-        <v>1.964471530773324</v>
+        <v>4.033394372910436</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.668332266416229</v>
+        <v>0.9407204313138209</v>
       </c>
       <c r="C19">
-        <v>0.09063414083041721</v>
+        <v>0.1917902187258811</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1578891133171929</v>
+        <v>0.232814803302098</v>
       </c>
       <c r="F19">
-        <v>1.401245387928924</v>
+        <v>2.215737076314255</v>
       </c>
       <c r="G19">
-        <v>0.0008097456261323965</v>
+        <v>0.002478250235469917</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06610715165337666</v>
+        <v>0.06972919925626542</v>
       </c>
       <c r="K19">
-        <v>1.209083869898308</v>
+        <v>0.4585761672156821</v>
       </c>
       <c r="L19">
-        <v>0.5099201732002996</v>
+        <v>0.4603538977128636</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8283830803759357</v>
+        <v>1.947614281023423</v>
       </c>
       <c r="O19">
-        <v>1.961479471359468</v>
+        <v>4.03469715133383</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.733094262500799</v>
+        <v>0.9580469108108787</v>
       </c>
       <c r="C20">
-        <v>0.09029670916823562</v>
+        <v>0.1915931563427336</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1620567468977647</v>
+        <v>0.2335230876332162</v>
       </c>
       <c r="F20">
-        <v>1.430221890935357</v>
+        <v>2.218450338128022</v>
       </c>
       <c r="G20">
-        <v>0.0008084009880892267</v>
+        <v>0.00247742842397643</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06706477203830019</v>
+        <v>0.07006864768403531</v>
       </c>
       <c r="K20">
-        <v>1.256944085219004</v>
+        <v>0.4723070325257481</v>
       </c>
       <c r="L20">
-        <v>0.527931606887563</v>
+        <v>0.4645582077430817</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8122304838615675</v>
+        <v>1.940809957547208</v>
       </c>
       <c r="O20">
-        <v>1.975245388988412</v>
+        <v>4.028960422369238</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.951963720575179</v>
+        <v>1.016601076190142</v>
       </c>
       <c r="C21">
-        <v>0.08920718954890461</v>
+        <v>0.1909577788882437</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1762708085577742</v>
+        <v>0.236003352725092</v>
       </c>
       <c r="F21">
-        <v>1.53059276248905</v>
+        <v>2.228770506188454</v>
       </c>
       <c r="G21">
-        <v>0.0008039570503192353</v>
+        <v>0.002474756866363172</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07028383676878036</v>
+        <v>0.07120517410949034</v>
       </c>
       <c r="K21">
-        <v>1.418414882709925</v>
+        <v>0.5185104831669207</v>
       </c>
       <c r="L21">
-        <v>0.58899226203647</v>
+        <v>0.4788876321502897</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7595813100687033</v>
+        <v>1.918658866215897</v>
       </c>
       <c r="O21">
-        <v>2.026973771606436</v>
+        <v>4.011888988003847</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.09607716986693</v>
+        <v>1.055118717866435</v>
       </c>
       <c r="C22">
-        <v>0.08852853449113951</v>
+        <v>0.1905623674476402</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1857292332554152</v>
+        <v>0.2376989339698596</v>
       </c>
       <c r="F22">
-        <v>1.598594690233256</v>
+        <v>2.23641123095058</v>
       </c>
       <c r="G22">
-        <v>0.0008011055863384279</v>
+        <v>0.002473077373843946</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07238932690276556</v>
+        <v>0.07194492881797032</v>
       </c>
       <c r="K22">
-        <v>1.524522088959657</v>
+        <v>0.5487563130542412</v>
       </c>
       <c r="L22">
-        <v>0.6293436831983286</v>
+        <v>0.488403316487009</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7264277285100522</v>
+        <v>1.904711549579827</v>
       </c>
       <c r="O22">
-        <v>2.065119952619341</v>
+        <v>4.00237340057086</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.019055450280291</v>
+        <v>1.034538589335796</v>
       </c>
       <c r="C23">
-        <v>0.08888765740527305</v>
+        <v>0.190771594945236</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1806649158762781</v>
+        <v>0.2367871676533397</v>
       </c>
       <c r="F23">
-        <v>1.562070375201529</v>
+        <v>2.23225135050393</v>
       </c>
       <c r="G23">
-        <v>0.0008026227672899606</v>
+        <v>0.002473967680848168</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0712654064737599</v>
+        <v>0.07155038960786086</v>
       </c>
       <c r="K23">
-        <v>1.467832607667361</v>
+        <v>0.532609214870547</v>
       </c>
       <c r="L23">
-        <v>0.6077640990175013</v>
+        <v>0.4833109100789699</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.744004382800507</v>
+        <v>1.912107016824955</v>
       </c>
       <c r="O23">
-        <v>2.044346563349535</v>
+        <v>4.007301874876532</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.729533322675564</v>
+        <v>0.9570941357488891</v>
       </c>
       <c r="C24">
-        <v>0.09031507412731798</v>
+        <v>0.1916038773366964</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1618271126544037</v>
+        <v>0.2334838129930219</v>
       </c>
       <c r="F24">
-        <v>1.428619689627837</v>
+        <v>2.218296805663343</v>
       </c>
       <c r="G24">
-        <v>0.0008084745459864188</v>
+        <v>0.002477473216240808</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0670121792569951</v>
+        <v>0.07005002157199058</v>
       </c>
       <c r="K24">
-        <v>1.254313516637296</v>
+        <v>0.4715527302305986</v>
       </c>
       <c r="L24">
-        <v>0.5269405511965317</v>
+        <v>0.4643265586607868</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8131115242004212</v>
+        <v>1.941180945913957</v>
       </c>
       <c r="O24">
-        <v>1.974469458281419</v>
+        <v>4.029267166392884</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.42108832053836</v>
+        <v>0.8746527075001893</v>
       </c>
       <c r="C25">
-        <v>0.09199531587486476</v>
+        <v>0.1925873129601907</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1421610661456292</v>
+        <v>0.230243010044866</v>
       </c>
       <c r="F25">
-        <v>1.293994424614326</v>
+        <v>2.207100226966006</v>
       </c>
       <c r="G25">
-        <v>0.000815027401760593</v>
+        <v>0.002481541867647916</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0624285058793923</v>
+        <v>0.06841906076351378</v>
       </c>
       <c r="K25">
-        <v>1.025971620091241</v>
+        <v>0.4059218494859351</v>
       </c>
       <c r="L25">
-        <v>0.4414231988065609</v>
+        <v>0.4445024361192225</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8927469204731242</v>
+        <v>1.974815212490963</v>
       </c>
       <c r="O25">
-        <v>1.916099158117049</v>
+        <v>4.060011339560759</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_165/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_165/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8149060806616717</v>
+        <v>1.196488709239787</v>
       </c>
       <c r="C2">
-        <v>0.1933857673950889</v>
+        <v>0.09335070970271708</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2281357363757017</v>
+        <v>0.1281671605566395</v>
       </c>
       <c r="F2">
-        <v>2.202178076897397</v>
+        <v>1.201845026581907</v>
       </c>
       <c r="G2">
-        <v>0.002484787234215415</v>
+        <v>0.0008200742914426269</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06720758584429021</v>
+        <v>0.05905323697627907</v>
       </c>
       <c r="K2">
-        <v>0.3578018687996689</v>
+        <v>0.8589930332861115</v>
       </c>
       <c r="L2">
-        <v>0.4304720508122273</v>
+        <v>0.3796228716522307</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.001538814254022</v>
+        <v>0.9554683614528459</v>
       </c>
       <c r="O2">
-        <v>4.088716896165778</v>
+        <v>1.886075614526334</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7750184406520191</v>
+        <v>1.045473084502987</v>
       </c>
       <c r="C3">
-        <v>0.1939736074560976</v>
+        <v>0.09434188037412206</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2268825072741194</v>
+        <v>0.1189516817369061</v>
       </c>
       <c r="F3">
-        <v>2.200917907954903</v>
+        <v>1.143266111517917</v>
       </c>
       <c r="G3">
-        <v>0.002487143628304584</v>
+        <v>0.000823640097450305</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06638006353365711</v>
+        <v>0.05676377755486683</v>
       </c>
       <c r="K3">
-        <v>0.3253221577429599</v>
+        <v>0.7462980419483927</v>
       </c>
       <c r="L3">
-        <v>0.4213189132172204</v>
+        <v>0.3383460421211737</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.020873338268105</v>
+        <v>1.000389355546795</v>
       </c>
       <c r="O3">
-        <v>4.111959272972399</v>
+        <v>1.873043463504857</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7508280886198406</v>
+        <v>0.9532290148255811</v>
       </c>
       <c r="C4">
-        <v>0.1943577008368997</v>
+        <v>0.0949859357031464</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2261996318757404</v>
+        <v>0.113415011073883</v>
       </c>
       <c r="F4">
-        <v>2.201169440998598</v>
+        <v>1.10906096821509</v>
       </c>
       <c r="G4">
-        <v>0.002488668306307481</v>
+        <v>0.0008259034334213205</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06586880983464738</v>
+        <v>0.0553565084171197</v>
       </c>
       <c r="K4">
-        <v>0.3054464656298137</v>
+        <v>0.6772589555860691</v>
       </c>
       <c r="L4">
-        <v>0.4158751048123719</v>
+        <v>0.3132638289201708</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.033348906436248</v>
+        <v>1.029119873194998</v>
       </c>
       <c r="O4">
-        <v>4.128099907232468</v>
+        <v>1.868414251262806</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7410466867682999</v>
+        <v>0.9157446689590927</v>
       </c>
       <c r="C5">
-        <v>0.1945200611728879</v>
+        <v>0.0952572648518224</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2259431998857586</v>
+        <v>0.1111879025042377</v>
       </c>
       <c r="F5">
-        <v>2.201530074588845</v>
+        <v>1.095544809500254</v>
       </c>
       <c r="G5">
-        <v>0.002489309256433648</v>
+        <v>0.0008268446465521061</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06565968885430706</v>
+        <v>0.05478258249059209</v>
       </c>
       <c r="K5">
-        <v>0.2973642784447748</v>
+        <v>0.6491542305584233</v>
       </c>
       <c r="L5">
-        <v>0.4137012343948498</v>
+        <v>0.3031034704510915</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.038584740028922</v>
+        <v>1.041110613231933</v>
       </c>
       <c r="O5">
-        <v>4.135147716158087</v>
+        <v>1.867342748597082</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7394271257576008</v>
+        <v>0.9095263957689212</v>
       </c>
       <c r="C6">
-        <v>0.194547374130277</v>
+        <v>0.09530285331577559</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2259019408881606</v>
+        <v>0.1108198106234006</v>
       </c>
       <c r="F6">
-        <v>2.201605557364871</v>
+        <v>1.093325411389699</v>
       </c>
       <c r="G6">
-        <v>0.002489416873071518</v>
+        <v>0.0008270020835119373</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06562491764685419</v>
+        <v>0.05468725329296831</v>
       </c>
       <c r="K6">
-        <v>0.2960232974374151</v>
+        <v>0.6444889482533966</v>
       </c>
       <c r="L6">
-        <v>0.4133429601391612</v>
+        <v>0.3014198836670516</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.039463323959224</v>
+        <v>1.043118576246325</v>
       </c>
       <c r="O6">
-        <v>4.136346414924304</v>
+        <v>1.867213107545084</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7506958630696374</v>
+        <v>0.9527230782928768</v>
       </c>
       <c r="C7">
-        <v>0.1943598668212552</v>
+        <v>0.09498955908429174</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2261960850057605</v>
+        <v>0.1133848594514042</v>
       </c>
       <c r="F7">
-        <v>2.201173259044054</v>
+        <v>1.108876999405481</v>
       </c>
       <c r="G7">
-        <v>0.002488676870789281</v>
+        <v>0.000825916050119771</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06586599270258375</v>
+        <v>0.05534877016994955</v>
       </c>
       <c r="K7">
-        <v>0.3053373956734333</v>
+        <v>0.6768798197581702</v>
       </c>
       <c r="L7">
-        <v>0.4158456066805485</v>
+        <v>0.3131265628587556</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.033418903481598</v>
+        <v>1.029280447175968</v>
       </c>
       <c r="O7">
-        <v>4.128193051660716</v>
+        <v>1.868396543583245</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8010908048804595</v>
+        <v>1.144309632706893</v>
       </c>
       <c r="C8">
-        <v>0.193583658043055</v>
+        <v>0.09368507273433657</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.227685685295544</v>
+        <v>0.1249635049579432</v>
       </c>
       <c r="F8">
-        <v>2.201530957491755</v>
+        <v>1.181268552011957</v>
       </c>
       <c r="G8">
-        <v>0.002485583597191592</v>
+        <v>0.0008212886237643018</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06692291700088049</v>
+        <v>0.05826410750519884</v>
       </c>
       <c r="K8">
-        <v>0.3465892373754969</v>
+        <v>0.8200971897063027</v>
       </c>
       <c r="L8">
-        <v>0.4272795865308865</v>
+        <v>0.3653331505532122</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.008080001178174</v>
+        <v>0.9707149458575591</v>
       </c>
       <c r="O8">
-        <v>4.09634293152935</v>
+        <v>1.880861719256927</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9022759107380409</v>
+        <v>1.524547792295209</v>
       </c>
       <c r="C9">
-        <v>0.1922445352046722</v>
+        <v>0.09141079144346875</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2312914691581369</v>
+        <v>0.1487052289292272</v>
       </c>
       <c r="F9">
-        <v>2.210356230186804</v>
+        <v>1.338192941401246</v>
       </c>
       <c r="G9">
-        <v>0.002480132723350525</v>
+        <v>0.0008127865321144727</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0689701154079394</v>
+        <v>0.06397232641602457</v>
       </c>
       <c r="K9">
-        <v>0.4279986314517146</v>
+        <v>1.102675693277973</v>
       </c>
       <c r="L9">
-        <v>0.4510925871223037</v>
+        <v>0.4700318341798919</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.963181403777261</v>
+        <v>0.8652680341787758</v>
       </c>
       <c r="O9">
-        <v>4.048712725401003</v>
+        <v>1.933642144485731</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9780288482903075</v>
+        <v>1.807773446425642</v>
       </c>
       <c r="C10">
-        <v>0.1913712635613543</v>
+        <v>0.08991644360686379</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2343551271377819</v>
+        <v>0.1668849510143815</v>
       </c>
       <c r="F10">
-        <v>2.221781246709696</v>
+        <v>1.464055959048508</v>
       </c>
       <c r="G10">
-        <v>0.002476499230776338</v>
+        <v>0.0008068680220986513</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07045825642043368</v>
+        <v>0.06816609523490058</v>
       </c>
       <c r="K10">
-        <v>0.4881072860000302</v>
+        <v>1.312085150730468</v>
       </c>
       <c r="L10">
-        <v>0.4694281156791078</v>
+        <v>0.5487338996718449</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.933110848054159</v>
+        <v>0.7939388543326984</v>
       </c>
       <c r="O10">
-        <v>4.02275057394499</v>
+        <v>1.992014676090633</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.01279224614251</v>
+        <v>1.937721441399219</v>
       </c>
       <c r="C11">
-        <v>0.1909977923007524</v>
+        <v>0.08927585163132434</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2358382808251918</v>
+        <v>0.1753401614760648</v>
       </c>
       <c r="F11">
-        <v>2.228049526615308</v>
+        <v>1.523952123996366</v>
       </c>
       <c r="G11">
-        <v>0.002474926096785909</v>
+        <v>0.0008042418820567122</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0711317040008872</v>
+        <v>0.07007515967452704</v>
       </c>
       <c r="K11">
-        <v>0.5155136403542429</v>
+        <v>1.407919886104139</v>
       </c>
       <c r="L11">
-        <v>0.4779503060856314</v>
+        <v>0.5850105208701706</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.920063355910628</v>
+        <v>0.7629207226561382</v>
       </c>
       <c r="O11">
-        <v>4.012899504219945</v>
+        <v>2.023374438832093</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.025999189961169</v>
+        <v>1.987111456592061</v>
       </c>
       <c r="C12">
-        <v>0.190859772546478</v>
+        <v>0.08903899708343488</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2364127201518684</v>
+        <v>0.1785707241674999</v>
       </c>
       <c r="F12">
-        <v>2.230576913547253</v>
+        <v>1.54704325284888</v>
       </c>
       <c r="G12">
-        <v>0.002474341802290825</v>
+        <v>0.0008032565323049708</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07138620505511284</v>
+        <v>0.07079835568811177</v>
       </c>
       <c r="K12">
-        <v>0.5259003151301727</v>
+        <v>1.444308016227808</v>
       </c>
       <c r="L12">
-        <v>0.4812033252748051</v>
+        <v>0.5988233413854829</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.915213428364861</v>
+        <v>0.7513894668807864</v>
       </c>
       <c r="O12">
-        <v>4.009450759896964</v>
+        <v>2.03598974060381</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.023152947089272</v>
+        <v>1.976465987293579</v>
       </c>
       <c r="C13">
-        <v>0.1908893463300174</v>
+        <v>0.08908975189973489</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2362884360781692</v>
+        <v>0.1778736502485003</v>
       </c>
       <c r="F13">
-        <v>2.230025763050222</v>
+        <v>1.542051441191248</v>
       </c>
       <c r="G13">
-        <v>0.00247446713361554</v>
+        <v>0.000803468346521769</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07133141699402756</v>
+        <v>0.07064258882122587</v>
       </c>
       <c r="K13">
-        <v>0.5236629899021636</v>
+        <v>1.436466587577598</v>
       </c>
       <c r="L13">
-        <v>0.480501583106232</v>
+        <v>0.5958450155832082</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.916253904873801</v>
+        <v>0.7538632329758067</v>
       </c>
       <c r="O13">
-        <v>4.010180984087867</v>
+        <v>2.03323908062265</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.013877936018474</v>
+        <v>1.941781016107797</v>
       </c>
       <c r="C14">
-        <v>0.1909863691602354</v>
+        <v>0.08925625022185102</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.235885284116911</v>
+        <v>0.175605352758275</v>
       </c>
       <c r="F14">
-        <v>2.228254376983926</v>
+        <v>1.525843453724846</v>
       </c>
       <c r="G14">
-        <v>0.002474877797861478</v>
+        <v>0.0008041606365420721</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07115265243341184</v>
+        <v>0.07013465142041042</v>
       </c>
       <c r="K14">
-        <v>0.5163679913159456</v>
+        <v>1.41091151276197</v>
       </c>
       <c r="L14">
-        <v>0.4782174170806144</v>
+        <v>0.5861453496092963</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.919662528014355</v>
+        <v>0.7619676838276888</v>
       </c>
       <c r="O14">
-        <v>4.012610129963122</v>
+        <v>2.024397183398634</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.008202274758389</v>
+        <v>1.920559799405964</v>
       </c>
       <c r="C15">
-        <v>0.1910462415424661</v>
+        <v>0.089358983390877</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2356400070375315</v>
+        <v>0.1742197658030662</v>
       </c>
       <c r="F15">
-        <v>2.227189363110242</v>
+        <v>1.515969881323841</v>
       </c>
       <c r="G15">
-        <v>0.00247513082721223</v>
+        <v>0.0008045858583196294</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07104308599794606</v>
+        <v>0.06982356355983299</v>
       </c>
       <c r="K15">
-        <v>0.5119006832987907</v>
+        <v>1.39527146997284</v>
       </c>
       <c r="L15">
-        <v>0.4768216595573307</v>
+        <v>0.5802141042131836</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.921762243572321</v>
+        <v>0.7669601241427541</v>
       </c>
       <c r="O15">
-        <v>4.01413472725676</v>
+        <v>2.019079151348308</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9757630097248295</v>
+        <v>1.799305191327562</v>
       </c>
       <c r="C16">
-        <v>0.1913961481501438</v>
+        <v>0.08995910379591976</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2342599944928949</v>
+        <v>0.1663362882173125</v>
       </c>
       <c r="F16">
-        <v>2.221393126812771</v>
+        <v>1.460197260816486</v>
       </c>
       <c r="G16">
-        <v>0.002476603639275858</v>
+        <v>0.0008070409444792126</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07041417315435794</v>
+        <v>0.06804136694114149</v>
       </c>
       <c r="K16">
-        <v>0.4863174318327879</v>
+        <v>1.305834932515069</v>
       </c>
       <c r="L16">
-        <v>0.4688747996467697</v>
+        <v>0.546373309476877</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.93397624727986</v>
+        <v>0.7959954927958471</v>
       </c>
       <c r="O16">
-        <v>4.023433781372347</v>
+        <v>1.990066058336652</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9559396290366067</v>
+        <v>1.725218391290241</v>
       </c>
       <c r="C17">
-        <v>0.1916168859373961</v>
+        <v>0.09033735666302789</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2334362726444503</v>
+        <v>0.1615489291151206</v>
       </c>
       <c r="F17">
-        <v>2.218111428487461</v>
+        <v>1.426679615850887</v>
       </c>
       <c r="G17">
-        <v>0.002477527553218799</v>
+        <v>0.000808563736786659</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07002744562093355</v>
+        <v>0.06694844089385654</v>
       </c>
       <c r="K17">
-        <v>0.4706386040666928</v>
+        <v>1.251125795024819</v>
       </c>
       <c r="L17">
-        <v>0.4640459321477266</v>
+        <v>0.525739757122679</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.941630970138325</v>
+        <v>0.8141802113993637</v>
       </c>
       <c r="O17">
-        <v>4.029640191268669</v>
+        <v>1.973532165053882</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9445663113765477</v>
+        <v>1.682708414333092</v>
       </c>
       <c r="C18">
-        <v>0.191746088029177</v>
+        <v>0.09055860115222103</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2329709158804398</v>
+        <v>0.158812659764898</v>
       </c>
       <c r="F18">
-        <v>2.216324705178096</v>
+        <v>1.407647770716224</v>
       </c>
       <c r="G18">
-        <v>0.002478066474433481</v>
+        <v>0.0008094458654407151</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06980468011067487</v>
+        <v>0.06631993539736669</v>
       </c>
       <c r="K18">
-        <v>0.4616264829022327</v>
+        <v>1.219711539418341</v>
       </c>
       <c r="L18">
-        <v>0.4612855698375995</v>
+        <v>0.5139160890646792</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.946093226055433</v>
+        <v>0.8247735923598973</v>
       </c>
       <c r="O18">
-        <v>4.033394372910436</v>
+        <v>1.964471530773437</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9407204313138209</v>
+        <v>1.668332266416229</v>
       </c>
       <c r="C19">
-        <v>0.1917902187258811</v>
+        <v>0.09063414083064814</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.232814803302098</v>
+        <v>0.1578891133171965</v>
       </c>
       <c r="F19">
-        <v>2.215737076314255</v>
+        <v>1.401245387928924</v>
       </c>
       <c r="G19">
-        <v>0.002478250235469917</v>
+        <v>0.0008097456261322434</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06972919925626542</v>
+        <v>0.06610715165332337</v>
       </c>
       <c r="K19">
-        <v>0.4585761672156821</v>
+        <v>1.209083869898251</v>
       </c>
       <c r="L19">
-        <v>0.4603538977128636</v>
+        <v>0.5099201732002996</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.947614281023423</v>
+        <v>0.8283830803759342</v>
       </c>
       <c r="O19">
-        <v>4.03469715133383</v>
+        <v>1.961479471359411</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9580469108108787</v>
+        <v>1.733094262500856</v>
       </c>
       <c r="C20">
-        <v>0.1915931563427336</v>
+        <v>0.09029670916799759</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2335230876332162</v>
+        <v>0.1620567468977363</v>
       </c>
       <c r="F20">
-        <v>2.218450338128022</v>
+        <v>1.430221890935357</v>
       </c>
       <c r="G20">
-        <v>0.00247742842397643</v>
+        <v>0.0008084009880707009</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07006864768403531</v>
+        <v>0.06706477203826111</v>
       </c>
       <c r="K20">
-        <v>0.4723070325257481</v>
+        <v>1.256944085219004</v>
       </c>
       <c r="L20">
-        <v>0.4645582077430817</v>
+        <v>0.5279316068874493</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.940809957547208</v>
+        <v>0.8122304838615027</v>
       </c>
       <c r="O20">
-        <v>4.028960422369238</v>
+        <v>1.975245388988355</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.016601076190142</v>
+        <v>1.951963720575293</v>
       </c>
       <c r="C21">
-        <v>0.1909577788882437</v>
+        <v>0.08920718954900764</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.236003352725092</v>
+        <v>0.1762708085577458</v>
       </c>
       <c r="F21">
-        <v>2.228770506188454</v>
+        <v>1.53059276248905</v>
       </c>
       <c r="G21">
-        <v>0.002474756866363172</v>
+        <v>0.0008039570502648399</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07120517410949034</v>
+        <v>0.07028383676886918</v>
       </c>
       <c r="K21">
-        <v>0.5185104831669207</v>
+        <v>1.418414882709925</v>
       </c>
       <c r="L21">
-        <v>0.4788876321502897</v>
+        <v>0.5889922620364274</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.918658866215897</v>
+        <v>0.7595813100687043</v>
       </c>
       <c r="O21">
-        <v>4.011888988003847</v>
+        <v>2.026973771606379</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.055118717866435</v>
+        <v>2.09607716986693</v>
       </c>
       <c r="C22">
-        <v>0.1905623674476402</v>
+        <v>0.0885285344917186</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2376989339698596</v>
+        <v>0.1857292332554081</v>
       </c>
       <c r="F22">
-        <v>2.23641123095058</v>
+        <v>1.59859469023327</v>
       </c>
       <c r="G22">
-        <v>0.002473077373843946</v>
+        <v>0.0008011055863703653</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07194492881797032</v>
+        <v>0.07238932690271938</v>
       </c>
       <c r="K22">
-        <v>0.5487563130542412</v>
+        <v>1.524522088959543</v>
       </c>
       <c r="L22">
-        <v>0.488403316487009</v>
+        <v>0.6293436831982433</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.904711549579827</v>
+        <v>0.7264277285100539</v>
       </c>
       <c r="O22">
-        <v>4.00237340057086</v>
+        <v>2.065119952619284</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.034538589335796</v>
+        <v>2.019055450280348</v>
       </c>
       <c r="C23">
-        <v>0.190771594945236</v>
+        <v>0.08888765740506699</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2367871676533397</v>
+        <v>0.1806649158762568</v>
       </c>
       <c r="F23">
-        <v>2.23225135050393</v>
+        <v>1.562070375201529</v>
       </c>
       <c r="G23">
-        <v>0.002473967680848168</v>
+        <v>0.0008026227672894851</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07155038960786086</v>
+        <v>0.0712654064738274</v>
       </c>
       <c r="K23">
-        <v>0.532609214870547</v>
+        <v>1.467832607667219</v>
       </c>
       <c r="L23">
-        <v>0.4833109100789699</v>
+        <v>0.6077640990174586</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.912107016824955</v>
+        <v>0.7440043828005043</v>
       </c>
       <c r="O23">
-        <v>4.007301874876532</v>
+        <v>2.044346563349478</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9570941357488891</v>
+        <v>1.729533322675508</v>
       </c>
       <c r="C24">
-        <v>0.1916038773366964</v>
+        <v>0.09031507412768747</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2334838129930219</v>
+        <v>0.1618271126544322</v>
       </c>
       <c r="F24">
-        <v>2.218296805663343</v>
+        <v>1.428619689627823</v>
       </c>
       <c r="G24">
-        <v>0.002477473216240808</v>
+        <v>0.0008084745460108511</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07005002157199058</v>
+        <v>0.06701217925694891</v>
       </c>
       <c r="K24">
-        <v>0.4715527302305986</v>
+        <v>1.254313516637154</v>
       </c>
       <c r="L24">
-        <v>0.4643265586607868</v>
+        <v>0.5269405511965317</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.941180945913957</v>
+        <v>0.8131115242004643</v>
       </c>
       <c r="O24">
-        <v>4.029267166392884</v>
+        <v>1.974469458281362</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8746527075001893</v>
+        <v>1.421088320538388</v>
       </c>
       <c r="C25">
-        <v>0.1925873129601907</v>
+        <v>0.09199531587500687</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.230243010044866</v>
+        <v>0.1421610661456292</v>
       </c>
       <c r="F25">
-        <v>2.207100226966006</v>
+        <v>1.293994424614311</v>
       </c>
       <c r="G25">
-        <v>0.002481541867647916</v>
+        <v>0.0008150274016784979</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06841906076351378</v>
+        <v>0.06242850587936033</v>
       </c>
       <c r="K25">
-        <v>0.4059218494859351</v>
+        <v>1.025971620091383</v>
       </c>
       <c r="L25">
-        <v>0.4445024361192225</v>
+        <v>0.441423198806703</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.974815212490963</v>
+        <v>0.8927469204731648</v>
       </c>
       <c r="O25">
-        <v>4.060011339560759</v>
+        <v>1.916099158117049</v>
       </c>
     </row>
   </sheetData>
